--- a/biology/Médecine/Université_de_pharmacie_et_médecine_de_Hô_Chi_Minh-Ville/Université_de_pharmacie_et_médecine_de_Hô_Chi_Minh-Ville.xlsx
+++ b/biology/Médecine/Université_de_pharmacie_et_médecine_de_Hô_Chi_Minh-Ville/Université_de_pharmacie_et_médecine_de_Hô_Chi_Minh-Ville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_pharmacie_et_m%C3%A9decine_de_H%C3%B4_Chi_Minh-Ville</t>
+          <t>Université_de_pharmacie_et_médecine_de_Hô_Chi_Minh-Ville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'université de pharmacie et médecine de Hô Chi Minh-Ville est située dans le 5e arrondissement de Hô Chi Minh-Ville, la plus grande ville du Viêtnam. Cette université est une école de formation de docteurs en médecine, qui sont docteurs ès sciences au Viêtnam.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_pharmacie_et_m%C3%A9decine_de_H%C3%B4_Chi_Minh-Ville</t>
+          <t>Université_de_pharmacie_et_médecine_de_Hô_Chi_Minh-Ville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Facultés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">7 facultés composent cette université :
 Faculté des sciences fondamentales ;
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_pharmacie_et_m%C3%A9decine_de_H%C3%B4_Chi_Minh-Ville</t>
+          <t>Université_de_pharmacie_et_médecine_de_Hô_Chi_Minh-Ville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste des universités à Hô Chi Minh-Ville</t>
         </is>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_pharmacie_et_m%C3%A9decine_de_H%C3%B4_Chi_Minh-Ville</t>
+          <t>Université_de_pharmacie_et_médecine_de_Hô_Chi_Minh-Ville</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(vi) Site officiel
  Portail d'Hô Chi Minh-Ville   Portail des universités   Portail de la médecine   Portail de la pharmacie                  </t>
